--- a/Code/Results/Cases/Case_1_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9931157368146735</v>
+        <v>1.033147258299765</v>
       </c>
       <c r="D2">
-        <v>1.042968847649358</v>
+        <v>1.052739032815713</v>
       </c>
       <c r="E2">
-        <v>1.013312626272039</v>
+        <v>1.043560114241574</v>
       </c>
       <c r="F2">
-        <v>1.031333740688601</v>
+        <v>1.057078565411794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058330390657805</v>
+        <v>1.040685280113519</v>
       </c>
       <c r="J2">
-        <v>1.015504322966753</v>
+        <v>1.038273581367465</v>
       </c>
       <c r="K2">
-        <v>1.053860336671407</v>
+        <v>1.055486933010929</v>
       </c>
       <c r="L2">
-        <v>1.024589559019861</v>
+        <v>1.046333636256338</v>
       </c>
       <c r="M2">
-        <v>1.042373146489492</v>
+        <v>1.059814520164333</v>
       </c>
       <c r="N2">
-        <v>1.01694645558534</v>
+        <v>1.039748048944652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9984758172170122</v>
+        <v>1.034266039114036</v>
       </c>
       <c r="D3">
-        <v>1.046947209142219</v>
+        <v>1.053493715751801</v>
       </c>
       <c r="E3">
-        <v>1.017794048761153</v>
+        <v>1.044527572754767</v>
       </c>
       <c r="F3">
-        <v>1.036141476488328</v>
+        <v>1.058070975921634</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059867323140902</v>
+        <v>1.040869093023293</v>
       </c>
       <c r="J3">
-        <v>1.019008119408472</v>
+        <v>1.039034095496507</v>
       </c>
       <c r="K3">
-        <v>1.057012665184269</v>
+        <v>1.056054670911567</v>
       </c>
       <c r="L3">
-        <v>1.028204203407777</v>
+        <v>1.047111745717484</v>
       </c>
       <c r="M3">
-        <v>1.046331896842985</v>
+        <v>1.060620241870489</v>
       </c>
       <c r="N3">
-        <v>1.020455227819897</v>
+        <v>1.040509643090989</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001862660082658</v>
+        <v>1.03498987217182</v>
       </c>
       <c r="D4">
-        <v>1.049447905560597</v>
+        <v>1.053979628154624</v>
       </c>
       <c r="E4">
-        <v>1.020628277183494</v>
+        <v>1.045153333507585</v>
       </c>
       <c r="F4">
-        <v>1.039173448634025</v>
+        <v>1.058711693124417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060816256062407</v>
+        <v>1.040985176235427</v>
       </c>
       <c r="J4">
-        <v>1.021218838540835</v>
+        <v>1.039525573601963</v>
       </c>
       <c r="K4">
-        <v>1.058984034197062</v>
+        <v>1.05641895868618</v>
       </c>
       <c r="L4">
-        <v>1.03048395221855</v>
+        <v>1.047614368637878</v>
       </c>
       <c r="M4">
-        <v>1.048821000875923</v>
+        <v>1.061139547296934</v>
       </c>
       <c r="N4">
-        <v>1.022669086427</v>
+        <v>1.041001819151727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00326780996293</v>
+        <v>1.03529415012715</v>
       </c>
       <c r="D5">
-        <v>1.050482131364817</v>
+        <v>1.054183325768905</v>
       </c>
       <c r="E5">
-        <v>1.021804705996043</v>
+        <v>1.045416343450957</v>
       </c>
       <c r="F5">
-        <v>1.040429865699971</v>
+        <v>1.058980705781618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061204535110382</v>
+        <v>1.041033293142378</v>
       </c>
       <c r="J5">
-        <v>1.022135222738962</v>
+        <v>1.039732041426585</v>
       </c>
       <c r="K5">
-        <v>1.059796890663629</v>
+        <v>1.056571367709451</v>
       </c>
       <c r="L5">
-        <v>1.031428715170186</v>
+        <v>1.047825463922007</v>
       </c>
       <c r="M5">
-        <v>1.049850649535665</v>
+        <v>1.061357371938475</v>
       </c>
       <c r="N5">
-        <v>1.0235867719958</v>
+        <v>1.041208580184343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003502668638664</v>
+        <v>1.035345238498806</v>
       </c>
       <c r="D6">
-        <v>1.050654796852069</v>
+        <v>1.05421749345246</v>
       </c>
       <c r="E6">
-        <v>1.022001366342673</v>
+        <v>1.045460500462502</v>
       </c>
       <c r="F6">
-        <v>1.040639773924763</v>
+        <v>1.059025853955226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061269111343079</v>
+        <v>1.041041332022844</v>
       </c>
       <c r="J6">
-        <v>1.022288339677033</v>
+        <v>1.039766699515922</v>
       </c>
       <c r="K6">
-        <v>1.059932453087992</v>
+        <v>1.056596914574074</v>
       </c>
       <c r="L6">
-        <v>1.031586559535991</v>
+        <v>1.04786089558459</v>
       </c>
       <c r="M6">
-        <v>1.050022564810718</v>
+        <v>1.061393916825634</v>
       </c>
       <c r="N6">
-        <v>1.023740106377486</v>
+        <v>1.041243287492142</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001881508099231</v>
+        <v>1.03499393803214</v>
       </c>
       <c r="D7">
-        <v>1.049461791299407</v>
+        <v>1.053982352252482</v>
       </c>
       <c r="E7">
-        <v>1.020644055156438</v>
+        <v>1.045156848094817</v>
       </c>
       <c r="F7">
-        <v>1.039190307681029</v>
+        <v>1.058715289040383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060821485795102</v>
+        <v>1.040985821866417</v>
       </c>
       <c r="J7">
-        <v>1.021231133739259</v>
+        <v>1.039528333022717</v>
       </c>
       <c r="K7">
-        <v>1.058994957530647</v>
+        <v>1.056420998082505</v>
       </c>
       <c r="L7">
-        <v>1.030496629129704</v>
+        <v>1.047617190118479</v>
       </c>
       <c r="M7">
-        <v>1.048834824247948</v>
+        <v>1.061142459811893</v>
       </c>
       <c r="N7">
-        <v>1.022681399086017</v>
+        <v>1.041004582491176</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.99494458963709</v>
+        <v>1.033525375236843</v>
       </c>
       <c r="D8">
-        <v>1.044328926087657</v>
+        <v>1.052994581444529</v>
       </c>
       <c r="E8">
-        <v>1.014841097555773</v>
+        <v>1.043887122990004</v>
       </c>
       <c r="F8">
-        <v>1.032975307103365</v>
+        <v>1.057414252858239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058859398357906</v>
+        <v>1.040747991473829</v>
       </c>
       <c r="J8">
-        <v>1.016700461900224</v>
+        <v>1.038530730264364</v>
       </c>
       <c r="K8">
-        <v>1.054940134328441</v>
+        <v>1.055679439132127</v>
       </c>
       <c r="L8">
-        <v>1.025823720422671</v>
+        <v>1.046596781244452</v>
       </c>
       <c r="M8">
-        <v>1.04372639099385</v>
+        <v>1.060087241852102</v>
       </c>
       <c r="N8">
-        <v>1.018144293173296</v>
+        <v>1.040005563022479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9820566436499721</v>
+        <v>1.030936831633346</v>
       </c>
       <c r="D9">
-        <v>1.034694333749002</v>
+        <v>1.051235530604903</v>
       </c>
       <c r="E9">
-        <v>1.00408394463457</v>
+        <v>1.041647797147215</v>
       </c>
       <c r="F9">
-        <v>1.021386242136502</v>
+        <v>1.055110657278195</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055040544213433</v>
+        <v>1.040307060959437</v>
       </c>
       <c r="J9">
-        <v>1.008259337409298</v>
+        <v>1.036768028960171</v>
       </c>
       <c r="K9">
-        <v>1.047248525808028</v>
+        <v>1.054349196189753</v>
       </c>
       <c r="L9">
-        <v>1.017111108372602</v>
+        <v>1.044792060490464</v>
       </c>
       <c r="M9">
-        <v>1.034141616459553</v>
+        <v>1.058212128500543</v>
       </c>
       <c r="N9">
-        <v>1.009691181317382</v>
+        <v>1.038240358480249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9729571889526695</v>
+        <v>1.029210577690845</v>
       </c>
       <c r="D10">
-        <v>1.027834742175137</v>
+        <v>1.05005046627587</v>
       </c>
       <c r="E10">
-        <v>0.99651033522056</v>
+        <v>1.040153630436436</v>
       </c>
       <c r="F10">
-        <v>1.01318199962182</v>
+        <v>1.053567543294338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052232737093328</v>
+        <v>1.039998459706305</v>
       </c>
       <c r="J10">
-        <v>1.002286404044321</v>
+        <v>1.035589653891015</v>
       </c>
       <c r="K10">
-        <v>1.041718983017443</v>
+        <v>1.053446604033845</v>
       </c>
       <c r="L10">
-        <v>1.010942883796406</v>
+        <v>1.043584453926705</v>
       </c>
       <c r="M10">
-        <v>1.027317259119405</v>
+        <v>1.056951527370477</v>
       </c>
       <c r="N10">
-        <v>1.003709765701921</v>
+        <v>1.037060309983334</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688814786636157</v>
+        <v>1.028462944802094</v>
       </c>
       <c r="D11">
-        <v>1.024751013876997</v>
+        <v>1.049534397860088</v>
       </c>
       <c r="E11">
-        <v>0.993124383890639</v>
+        <v>1.039506333956258</v>
       </c>
       <c r="F11">
-        <v>1.009503733334746</v>
+        <v>1.05289760771156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050950093437287</v>
+        <v>1.039861364878037</v>
       </c>
       <c r="J11">
-        <v>0.9996086773540295</v>
+        <v>1.03507863125491</v>
       </c>
       <c r="K11">
-        <v>1.039220784925772</v>
+        <v>1.053052041803573</v>
       </c>
       <c r="L11">
-        <v>1.008177139633253</v>
+        <v>1.043060487434329</v>
       </c>
       <c r="M11">
-        <v>1.024248621432075</v>
+        <v>1.056403178977269</v>
       </c>
       <c r="N11">
-        <v>1.00102823633259</v>
+        <v>1.03654856163647</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9673457766697965</v>
+        <v>1.028185216300906</v>
       </c>
       <c r="D12">
-        <v>1.023587600626461</v>
+        <v>1.049342267833898</v>
       </c>
       <c r="E12">
-        <v>0.991849642570844</v>
+        <v>1.039265851999138</v>
       </c>
       <c r="F12">
-        <v>1.008117407794941</v>
+        <v>1.052648499710775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050463176195259</v>
+        <v>1.039809921118607</v>
       </c>
       <c r="J12">
-        <v>0.9985994298885492</v>
+        <v>1.034888697227453</v>
       </c>
       <c r="K12">
-        <v>1.038276434622574</v>
+        <v>1.052904923394384</v>
       </c>
       <c r="L12">
-        <v>1.007134674308495</v>
+        <v>1.042865702662374</v>
       </c>
       <c r="M12">
-        <v>1.023090726139981</v>
+        <v>1.056199122393811</v>
       </c>
       <c r="N12">
-        <v>1.000017555619946</v>
+        <v>1.036358357880909</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.967676200959699</v>
+        <v>1.028244791130322</v>
       </c>
       <c r="D13">
-        <v>1.023837986135838</v>
+        <v>1.049383500243694</v>
       </c>
       <c r="E13">
-        <v>0.9921238681478413</v>
+        <v>1.039317438337042</v>
       </c>
       <c r="F13">
-        <v>1.008415706501501</v>
+        <v>1.052701946175819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050568103674328</v>
+        <v>1.039820979532425</v>
       </c>
       <c r="J13">
-        <v>0.9988165936350848</v>
+        <v>1.034929444045145</v>
       </c>
       <c r="K13">
-        <v>1.038479757144273</v>
+        <v>1.052936506144902</v>
       </c>
       <c r="L13">
-        <v>1.007358987201858</v>
+        <v>1.042907491915566</v>
       </c>
       <c r="M13">
-        <v>1.023339933063731</v>
+        <v>1.056242910219778</v>
       </c>
       <c r="N13">
-        <v>1.000235027763911</v>
+        <v>1.036399162563756</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9687549905492416</v>
+        <v>1.028439988181966</v>
       </c>
       <c r="D14">
-        <v>1.024655218209783</v>
+        <v>1.0495185252891</v>
       </c>
       <c r="E14">
-        <v>0.9930193675153849</v>
+        <v>1.039486456607738</v>
       </c>
       <c r="F14">
-        <v>1.009389555375263</v>
+        <v>1.052877021754834</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050910061326575</v>
+        <v>1.039857123139098</v>
       </c>
       <c r="J14">
-        <v>0.9995255563141575</v>
+        <v>1.035062933648276</v>
       </c>
       <c r="K14">
-        <v>1.039143064252067</v>
+        <v>1.053039892379584</v>
       </c>
       <c r="L14">
-        <v>1.008091283518107</v>
+        <v>1.043044389735948</v>
       </c>
       <c r="M14">
-        <v>1.024153284050035</v>
+        <v>1.056386319258245</v>
       </c>
       <c r="N14">
-        <v>1.000944997251307</v>
+        <v>1.036532841737435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9694167344450558</v>
+        <v>1.028560252261256</v>
       </c>
       <c r="D15">
-        <v>1.025156330255251</v>
+        <v>1.049601660490361</v>
       </c>
       <c r="E15">
-        <v>0.9935688224028757</v>
+        <v>1.03959058807615</v>
       </c>
       <c r="F15">
-        <v>1.009986882163074</v>
+        <v>1.052984856597666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051119349259736</v>
+        <v>1.039879323431985</v>
       </c>
       <c r="J15">
-        <v>0.9999604063559827</v>
+        <v>1.035145165417293</v>
       </c>
       <c r="K15">
-        <v>1.039549550186535</v>
+        <v>1.053103517804122</v>
       </c>
       <c r="L15">
-        <v>1.00854044056612</v>
+        <v>1.043128715752296</v>
       </c>
       <c r="M15">
-        <v>1.024651991262661</v>
+        <v>1.05647462853162</v>
       </c>
       <c r="N15">
-        <v>1.00138046483007</v>
+        <v>1.036615190284996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732247045317926</v>
+        <v>1.029260192278729</v>
       </c>
       <c r="D16">
-        <v>1.028036930579733</v>
+        <v>1.050084654406964</v>
       </c>
       <c r="E16">
-        <v>0.9967327182178016</v>
+        <v>1.040196582765692</v>
       </c>
       <c r="F16">
-        <v>1.013423367594924</v>
+        <v>1.053611967684298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052316416597308</v>
+        <v>1.040007485202138</v>
       </c>
       <c r="J16">
-        <v>1.002462116120909</v>
+        <v>1.035623552335818</v>
       </c>
       <c r="K16">
-        <v>1.041882524811699</v>
+        <v>1.05347271120862</v>
       </c>
       <c r="L16">
-        <v>1.011124364061345</v>
+        <v>1.043619205396196</v>
       </c>
       <c r="M16">
-        <v>1.027518437344911</v>
+        <v>1.056987866779777</v>
       </c>
       <c r="N16">
-        <v>1.003885727309813</v>
+        <v>1.037094256567817</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9755760727880231</v>
+        <v>1.029699204147376</v>
       </c>
       <c r="D17">
-        <v>1.02981284118911</v>
+        <v>1.050386840344804</v>
       </c>
       <c r="E17">
-        <v>0.9986881172314567</v>
+        <v>1.040576623384316</v>
       </c>
       <c r="F17">
-        <v>1.015544524594326</v>
+        <v>1.054004867418096</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053049107867468</v>
+        <v>1.040086949425411</v>
       </c>
       <c r="J17">
-        <v>1.004006297976612</v>
+        <v>1.035923423040262</v>
       </c>
       <c r="K17">
-        <v>1.043317583876985</v>
+        <v>1.053703297212126</v>
       </c>
       <c r="L17">
-        <v>1.012719187670369</v>
+        <v>1.04392659128771</v>
       </c>
       <c r="M17">
-        <v>1.029285383042806</v>
+        <v>1.057309138315106</v>
       </c>
       <c r="N17">
-        <v>1.00543210208087</v>
+        <v>1.037394553123057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9769346073266161</v>
+        <v>1.029955257615959</v>
       </c>
       <c r="D18">
-        <v>1.030837817569126</v>
+        <v>1.050562817766142</v>
       </c>
       <c r="E18">
-        <v>0.9998184651040636</v>
+        <v>1.040798264522365</v>
       </c>
       <c r="F18">
-        <v>1.016769707460498</v>
+        <v>1.054233869666412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053470056714342</v>
+        <v>1.040132964878107</v>
       </c>
       <c r="J18">
-        <v>1.004898237668794</v>
+        <v>1.036098257474533</v>
       </c>
       <c r="K18">
-        <v>1.044144665473357</v>
+        <v>1.053837433828508</v>
       </c>
       <c r="L18">
-        <v>1.013640332812635</v>
+        <v>1.044105781553534</v>
       </c>
       <c r="M18">
-        <v>1.030305118896635</v>
+        <v>1.057496289376025</v>
       </c>
       <c r="N18">
-        <v>1.006325308429723</v>
+        <v>1.037569635842278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9773956724424536</v>
+        <v>1.030042562772791</v>
       </c>
       <c r="D19">
-        <v>1.031185489171597</v>
+        <v>1.050622773578647</v>
       </c>
       <c r="E19">
-        <v>1.000202184079354</v>
+        <v>1.040873833321268</v>
       </c>
       <c r="F19">
-        <v>1.017185452425117</v>
+        <v>1.054311924764839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053612513707007</v>
+        <v>1.040148598175685</v>
       </c>
       <c r="J19">
-        <v>1.005200906658223</v>
+        <v>1.036157858779945</v>
       </c>
       <c r="K19">
-        <v>1.044425012105934</v>
+        <v>1.053883109818275</v>
       </c>
       <c r="L19">
-        <v>1.013952903779202</v>
+        <v>1.044166863388495</v>
       </c>
       <c r="M19">
-        <v>1.030651003455028</v>
+        <v>1.057560062141093</v>
       </c>
       <c r="N19">
-        <v>1.006628407243833</v>
+        <v>1.03762932178838</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9753251456142862</v>
+        <v>1.029652103860938</v>
       </c>
       <c r="D20">
-        <v>1.029623434857251</v>
+        <v>1.050354447871462</v>
       </c>
       <c r="E20">
-        <v>0.9984793840480731</v>
+        <v>1.040535851740373</v>
       </c>
       <c r="F20">
-        <v>1.015318199173794</v>
+        <v>1.053962730529703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052971163911405</v>
+        <v>1.040078458280768</v>
       </c>
       <c r="J20">
-        <v>1.003841533659279</v>
+        <v>1.035891257520387</v>
       </c>
       <c r="K20">
-        <v>1.043164651834266</v>
+        <v>1.053678594779297</v>
       </c>
       <c r="L20">
-        <v>1.012549024457038</v>
+        <v>1.043893622317792</v>
       </c>
       <c r="M20">
-        <v>1.029096940173117</v>
+        <v>1.057274693867028</v>
       </c>
       <c r="N20">
-        <v>1.005267103779308</v>
+        <v>1.037362341924454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9684379278929476</v>
+        <v>1.028382508198257</v>
       </c>
       <c r="D21">
-        <v>1.024415067922775</v>
+        <v>1.049478775899013</v>
       </c>
       <c r="E21">
-        <v>0.9927561447300181</v>
+        <v>1.039436686245682</v>
       </c>
       <c r="F21">
-        <v>1.009103344540311</v>
+        <v>1.052825473651971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050809656552496</v>
+        <v>1.03984649411634</v>
       </c>
       <c r="J21">
-        <v>0.9993171956038497</v>
+        <v>1.035023627534169</v>
       </c>
       <c r="K21">
-        <v>1.038948196593076</v>
+        <v>1.053009463176749</v>
       </c>
       <c r="L21">
-        <v>1.007876066145141</v>
+        <v>1.043004081167169</v>
       </c>
       <c r="M21">
-        <v>1.023914279596029</v>
+        <v>1.056344099238774</v>
       </c>
       <c r="N21">
-        <v>1.000736340644891</v>
+        <v>1.036493479804138</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9639807149321181</v>
+        <v>1.027584121436824</v>
       </c>
       <c r="D22">
-        <v>1.021035817527843</v>
+        <v>1.048925665149497</v>
       </c>
       <c r="E22">
-        <v>0.9890584950830648</v>
+        <v>1.038745323895264</v>
       </c>
       <c r="F22">
-        <v>1.005079144790686</v>
+        <v>1.052108907046987</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049389711777331</v>
+        <v>1.039697637007329</v>
       </c>
       <c r="J22">
-        <v>0.9963874751230489</v>
+        <v>1.034477434230477</v>
       </c>
       <c r="K22">
-        <v>1.036201760092736</v>
+        <v>1.052585511347489</v>
       </c>
       <c r="L22">
-        <v>1.004849866752838</v>
+        <v>1.042443863802981</v>
       </c>
       <c r="M22">
-        <v>1.020550649896132</v>
+        <v>1.055756824466645</v>
       </c>
       <c r="N22">
-        <v>0.9978024596249646</v>
+        <v>1.035946510843305</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9663561140480104</v>
+        <v>1.028007375220358</v>
       </c>
       <c r="D23">
-        <v>1.022837463704803</v>
+        <v>1.049219120287704</v>
       </c>
       <c r="E23">
-        <v>0.9910284673622437</v>
+        <v>1.03911185417241</v>
       </c>
       <c r="F23">
-        <v>1.007223922285969</v>
+        <v>1.052488917456001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050148384377316</v>
+        <v>1.039776834337099</v>
       </c>
       <c r="J23">
-        <v>0.9979489586701248</v>
+        <v>1.034767046257357</v>
       </c>
       <c r="K23">
-        <v>1.037667026261582</v>
+        <v>1.052810563390537</v>
       </c>
       <c r="L23">
-        <v>1.006462784960118</v>
+        <v>1.042740933653757</v>
       </c>
       <c r="M23">
-        <v>1.022344089418121</v>
+        <v>1.056068355923492</v>
       </c>
       <c r="N23">
-        <v>0.9993661606577821</v>
+        <v>1.036236534152482</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9754385688057363</v>
+        <v>1.029673386498025</v>
       </c>
       <c r="D24">
-        <v>1.029709052986637</v>
+        <v>1.050369085508599</v>
       </c>
       <c r="E24">
-        <v>0.9985737330432999</v>
+        <v>1.040554274784085</v>
       </c>
       <c r="F24">
-        <v>1.015420503048726</v>
+        <v>1.053981770899269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053006403229495</v>
+        <v>1.040082296097558</v>
       </c>
       <c r="J24">
-        <v>1.003916010553636</v>
+        <v>1.03590579196596</v>
       </c>
       <c r="K24">
-        <v>1.043233785974241</v>
+        <v>1.053689757858448</v>
       </c>
       <c r="L24">
-        <v>1.012625941908921</v>
+        <v>1.043908519893303</v>
       </c>
       <c r="M24">
-        <v>1.029182122986057</v>
+        <v>1.057290258575415</v>
       </c>
       <c r="N24">
-        <v>1.005341686439398</v>
+        <v>1.037376897010607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9854731627663109</v>
+        <v>1.031606126488529</v>
       </c>
       <c r="D25">
-        <v>1.037258923349212</v>
+        <v>1.051692470529431</v>
       </c>
       <c r="E25">
-        <v>1.006932312729062</v>
+        <v>1.042226942563691</v>
       </c>
       <c r="F25">
-        <v>1.024462697841137</v>
+        <v>1.055707494273608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056072489349951</v>
+        <v>1.04042363650307</v>
       </c>
       <c r="J25">
-        <v>1.010499501921468</v>
+        <v>1.037224299545594</v>
       </c>
       <c r="K25">
-        <v>1.049305120840028</v>
+        <v>1.054695877849994</v>
       </c>
       <c r="L25">
-        <v>1.019423958266912</v>
+        <v>1.045259409838406</v>
       </c>
       <c r="M25">
-        <v>1.036692770209977</v>
+        <v>1.058698746744384</v>
       </c>
       <c r="N25">
-        <v>1.011934527120109</v>
+        <v>1.038697277022238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033147258299765</v>
+        <v>0.9931157368146732</v>
       </c>
       <c r="D2">
-        <v>1.052739032815713</v>
+        <v>1.042968847649358</v>
       </c>
       <c r="E2">
-        <v>1.043560114241574</v>
+        <v>1.013312626272039</v>
       </c>
       <c r="F2">
-        <v>1.057078565411794</v>
+        <v>1.031333740688602</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040685280113519</v>
+        <v>1.058330390657805</v>
       </c>
       <c r="J2">
-        <v>1.038273581367465</v>
+        <v>1.015504322966753</v>
       </c>
       <c r="K2">
-        <v>1.055486933010929</v>
+        <v>1.053860336671407</v>
       </c>
       <c r="L2">
-        <v>1.046333636256338</v>
+        <v>1.024589559019861</v>
       </c>
       <c r="M2">
-        <v>1.059814520164333</v>
+        <v>1.042373146489492</v>
       </c>
       <c r="N2">
-        <v>1.039748048944652</v>
+        <v>1.01694645558534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034266039114036</v>
+        <v>0.9984758172170122</v>
       </c>
       <c r="D3">
-        <v>1.053493715751801</v>
+        <v>1.046947209142218</v>
       </c>
       <c r="E3">
-        <v>1.044527572754767</v>
+        <v>1.017794048761153</v>
       </c>
       <c r="F3">
-        <v>1.058070975921634</v>
+        <v>1.036141476488327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040869093023293</v>
+        <v>1.059867323140902</v>
       </c>
       <c r="J3">
-        <v>1.039034095496507</v>
+        <v>1.019008119408472</v>
       </c>
       <c r="K3">
-        <v>1.056054670911567</v>
+        <v>1.057012665184268</v>
       </c>
       <c r="L3">
-        <v>1.047111745717484</v>
+        <v>1.028204203407777</v>
       </c>
       <c r="M3">
-        <v>1.060620241870489</v>
+        <v>1.046331896842984</v>
       </c>
       <c r="N3">
-        <v>1.040509643090989</v>
+        <v>1.020455227819897</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03498987217182</v>
+        <v>1.001862660082658</v>
       </c>
       <c r="D4">
-        <v>1.053979628154624</v>
+        <v>1.049447905560598</v>
       </c>
       <c r="E4">
-        <v>1.045153333507585</v>
+        <v>1.020628277183494</v>
       </c>
       <c r="F4">
-        <v>1.058711693124417</v>
+        <v>1.039173448634026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040985176235427</v>
+        <v>1.060816256062407</v>
       </c>
       <c r="J4">
-        <v>1.039525573601963</v>
+        <v>1.021218838540835</v>
       </c>
       <c r="K4">
-        <v>1.05641895868618</v>
+        <v>1.058984034197062</v>
       </c>
       <c r="L4">
-        <v>1.047614368637878</v>
+        <v>1.03048395221855</v>
       </c>
       <c r="M4">
-        <v>1.061139547296934</v>
+        <v>1.048821000875923</v>
       </c>
       <c r="N4">
-        <v>1.041001819151727</v>
+        <v>1.022669086427001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03529415012715</v>
+        <v>1.003267809962931</v>
       </c>
       <c r="D5">
-        <v>1.054183325768905</v>
+        <v>1.050482131364818</v>
       </c>
       <c r="E5">
-        <v>1.045416343450957</v>
+        <v>1.021804705996044</v>
       </c>
       <c r="F5">
-        <v>1.058980705781618</v>
+        <v>1.040429865699972</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041033293142378</v>
+        <v>1.061204535110383</v>
       </c>
       <c r="J5">
-        <v>1.039732041426585</v>
+        <v>1.022135222738963</v>
       </c>
       <c r="K5">
-        <v>1.056571367709451</v>
+        <v>1.059796890663631</v>
       </c>
       <c r="L5">
-        <v>1.047825463922007</v>
+        <v>1.031428715170187</v>
       </c>
       <c r="M5">
-        <v>1.061357371938475</v>
+        <v>1.049850649535666</v>
       </c>
       <c r="N5">
-        <v>1.041208580184343</v>
+        <v>1.023586771995801</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035345238498806</v>
+        <v>1.003502668638665</v>
       </c>
       <c r="D6">
-        <v>1.05421749345246</v>
+        <v>1.050654796852069</v>
       </c>
       <c r="E6">
-        <v>1.045460500462502</v>
+        <v>1.022001366342674</v>
       </c>
       <c r="F6">
-        <v>1.059025853955226</v>
+        <v>1.040639773924764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041041332022844</v>
+        <v>1.061269111343079</v>
       </c>
       <c r="J6">
-        <v>1.039766699515922</v>
+        <v>1.022288339677033</v>
       </c>
       <c r="K6">
-        <v>1.056596914574074</v>
+        <v>1.059932453087993</v>
       </c>
       <c r="L6">
-        <v>1.04786089558459</v>
+        <v>1.031586559535992</v>
       </c>
       <c r="M6">
-        <v>1.061393916825634</v>
+        <v>1.050022564810719</v>
       </c>
       <c r="N6">
-        <v>1.041243287492142</v>
+        <v>1.023740106377487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03499393803214</v>
+        <v>1.001881508099232</v>
       </c>
       <c r="D7">
-        <v>1.053982352252482</v>
+        <v>1.049461791299407</v>
       </c>
       <c r="E7">
-        <v>1.045156848094817</v>
+        <v>1.020644055156438</v>
       </c>
       <c r="F7">
-        <v>1.058715289040383</v>
+        <v>1.039190307681029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040985821866417</v>
+        <v>1.060821485795102</v>
       </c>
       <c r="J7">
-        <v>1.039528333022717</v>
+        <v>1.021231133739259</v>
       </c>
       <c r="K7">
-        <v>1.056420998082505</v>
+        <v>1.058994957530647</v>
       </c>
       <c r="L7">
-        <v>1.047617190118479</v>
+        <v>1.030496629129704</v>
       </c>
       <c r="M7">
-        <v>1.061142459811893</v>
+        <v>1.048834824247948</v>
       </c>
       <c r="N7">
-        <v>1.041004582491176</v>
+        <v>1.022681399086017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033525375236843</v>
+        <v>0.9949445896370896</v>
       </c>
       <c r="D8">
-        <v>1.052994581444529</v>
+        <v>1.044328926087657</v>
       </c>
       <c r="E8">
-        <v>1.043887122990004</v>
+        <v>1.014841097555773</v>
       </c>
       <c r="F8">
-        <v>1.057414252858239</v>
+        <v>1.032975307103365</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040747991473829</v>
+        <v>1.058859398357906</v>
       </c>
       <c r="J8">
-        <v>1.038530730264364</v>
+        <v>1.016700461900224</v>
       </c>
       <c r="K8">
-        <v>1.055679439132127</v>
+        <v>1.054940134328441</v>
       </c>
       <c r="L8">
-        <v>1.046596781244452</v>
+        <v>1.02582372042267</v>
       </c>
       <c r="M8">
-        <v>1.060087241852102</v>
+        <v>1.04372639099385</v>
       </c>
       <c r="N8">
-        <v>1.040005563022479</v>
+        <v>1.018144293173296</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030936831633346</v>
+        <v>0.9820566436499719</v>
       </c>
       <c r="D9">
-        <v>1.051235530604903</v>
+        <v>1.034694333749001</v>
       </c>
       <c r="E9">
-        <v>1.041647797147215</v>
+        <v>1.004083944634569</v>
       </c>
       <c r="F9">
-        <v>1.055110657278195</v>
+        <v>1.021386242136501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040307060959437</v>
+        <v>1.055040544213433</v>
       </c>
       <c r="J9">
-        <v>1.036768028960171</v>
+        <v>1.008259337409298</v>
       </c>
       <c r="K9">
-        <v>1.054349196189753</v>
+        <v>1.047248525808027</v>
       </c>
       <c r="L9">
-        <v>1.044792060490464</v>
+        <v>1.017111108372601</v>
       </c>
       <c r="M9">
-        <v>1.058212128500543</v>
+        <v>1.034141616459552</v>
       </c>
       <c r="N9">
-        <v>1.038240358480249</v>
+        <v>1.009691181317382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029210577690845</v>
+        <v>0.9729571889526686</v>
       </c>
       <c r="D10">
-        <v>1.05005046627587</v>
+        <v>1.027834742175135</v>
       </c>
       <c r="E10">
-        <v>1.040153630436436</v>
+        <v>0.9965103352205589</v>
       </c>
       <c r="F10">
-        <v>1.053567543294338</v>
+        <v>1.013181999621819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039998459706305</v>
+        <v>1.052232737093326</v>
       </c>
       <c r="J10">
-        <v>1.035589653891015</v>
+        <v>1.00228640404432</v>
       </c>
       <c r="K10">
-        <v>1.053446604033845</v>
+        <v>1.041718983017441</v>
       </c>
       <c r="L10">
-        <v>1.043584453926705</v>
+        <v>1.010942883796405</v>
       </c>
       <c r="M10">
-        <v>1.056951527370477</v>
+        <v>1.027317259119404</v>
       </c>
       <c r="N10">
-        <v>1.037060309983334</v>
+        <v>1.00370976570192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028462944802094</v>
+        <v>0.9688814786636156</v>
       </c>
       <c r="D11">
-        <v>1.049534397860088</v>
+        <v>1.024751013876998</v>
       </c>
       <c r="E11">
-        <v>1.039506333956258</v>
+        <v>0.9931243838906386</v>
       </c>
       <c r="F11">
-        <v>1.05289760771156</v>
+        <v>1.009503733334746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039861364878037</v>
+        <v>1.050950093437288</v>
       </c>
       <c r="J11">
-        <v>1.03507863125491</v>
+        <v>0.9996086773540294</v>
       </c>
       <c r="K11">
-        <v>1.053052041803573</v>
+        <v>1.039220784925772</v>
       </c>
       <c r="L11">
-        <v>1.043060487434329</v>
+        <v>1.008177139633253</v>
       </c>
       <c r="M11">
-        <v>1.056403178977269</v>
+        <v>1.024248621432075</v>
       </c>
       <c r="N11">
-        <v>1.03654856163647</v>
+        <v>1.00102823633259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028185216300906</v>
+        <v>0.9673457766697966</v>
       </c>
       <c r="D12">
-        <v>1.049342267833898</v>
+        <v>1.023587600626461</v>
       </c>
       <c r="E12">
-        <v>1.039265851999138</v>
+        <v>0.9918496425708442</v>
       </c>
       <c r="F12">
-        <v>1.052648499710775</v>
+        <v>1.008117407794941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039809921118607</v>
+        <v>1.050463176195259</v>
       </c>
       <c r="J12">
-        <v>1.034888697227453</v>
+        <v>0.9985994298885493</v>
       </c>
       <c r="K12">
-        <v>1.052904923394384</v>
+        <v>1.038276434622574</v>
       </c>
       <c r="L12">
-        <v>1.042865702662374</v>
+        <v>1.007134674308495</v>
       </c>
       <c r="M12">
-        <v>1.056199122393811</v>
+        <v>1.023090726139981</v>
       </c>
       <c r="N12">
-        <v>1.036358357880909</v>
+        <v>1.000017555619947</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028244791130322</v>
+        <v>0.9676762009596989</v>
       </c>
       <c r="D13">
-        <v>1.049383500243694</v>
+        <v>1.023837986135838</v>
       </c>
       <c r="E13">
-        <v>1.039317438337042</v>
+        <v>0.992123868147841</v>
       </c>
       <c r="F13">
-        <v>1.052701946175819</v>
+        <v>1.008415706501501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039820979532425</v>
+        <v>1.050568103674328</v>
       </c>
       <c r="J13">
-        <v>1.034929444045145</v>
+        <v>0.9988165936350847</v>
       </c>
       <c r="K13">
-        <v>1.052936506144902</v>
+        <v>1.038479757144273</v>
       </c>
       <c r="L13">
-        <v>1.042907491915566</v>
+        <v>1.007358987201858</v>
       </c>
       <c r="M13">
-        <v>1.056242910219778</v>
+        <v>1.023339933063731</v>
       </c>
       <c r="N13">
-        <v>1.036399162563756</v>
+        <v>1.000235027763911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028439988181966</v>
+        <v>0.9687549905492405</v>
       </c>
       <c r="D14">
-        <v>1.0495185252891</v>
+        <v>1.024655218209782</v>
       </c>
       <c r="E14">
-        <v>1.039486456607738</v>
+        <v>0.9930193675153838</v>
       </c>
       <c r="F14">
-        <v>1.052877021754834</v>
+        <v>1.009389555375262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039857123139098</v>
+        <v>1.050910061326574</v>
       </c>
       <c r="J14">
-        <v>1.035062933648276</v>
+        <v>0.9995255563141566</v>
       </c>
       <c r="K14">
-        <v>1.053039892379584</v>
+        <v>1.039143064252066</v>
       </c>
       <c r="L14">
-        <v>1.043044389735948</v>
+        <v>1.008091283518106</v>
       </c>
       <c r="M14">
-        <v>1.056386319258245</v>
+        <v>1.024153284050034</v>
       </c>
       <c r="N14">
-        <v>1.036532841737435</v>
+        <v>1.000944997251307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028560252261256</v>
+        <v>0.9694167344450553</v>
       </c>
       <c r="D15">
-        <v>1.049601660490361</v>
+        <v>1.025156330255251</v>
       </c>
       <c r="E15">
-        <v>1.03959058807615</v>
+        <v>0.9935688224028756</v>
       </c>
       <c r="F15">
-        <v>1.052984856597666</v>
+        <v>1.009986882163074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039879323431985</v>
+        <v>1.051119349259736</v>
       </c>
       <c r="J15">
-        <v>1.035145165417293</v>
+        <v>0.9999604063559824</v>
       </c>
       <c r="K15">
-        <v>1.053103517804122</v>
+        <v>1.039549550186535</v>
       </c>
       <c r="L15">
-        <v>1.043128715752296</v>
+        <v>1.00854044056612</v>
       </c>
       <c r="M15">
-        <v>1.05647462853162</v>
+        <v>1.02465199126266</v>
       </c>
       <c r="N15">
-        <v>1.036615190284996</v>
+        <v>1.001380464830069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029260192278729</v>
+        <v>0.9732247045317933</v>
       </c>
       <c r="D16">
-        <v>1.050084654406964</v>
+        <v>1.028036930579734</v>
       </c>
       <c r="E16">
-        <v>1.040196582765692</v>
+        <v>0.9967327182178023</v>
       </c>
       <c r="F16">
-        <v>1.053611967684298</v>
+        <v>1.013423367594924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040007485202138</v>
+        <v>1.052316416597308</v>
       </c>
       <c r="J16">
-        <v>1.035623552335818</v>
+        <v>1.00246211612091</v>
       </c>
       <c r="K16">
-        <v>1.05347271120862</v>
+        <v>1.041882524811699</v>
       </c>
       <c r="L16">
-        <v>1.043619205396196</v>
+        <v>1.011124364061346</v>
       </c>
       <c r="M16">
-        <v>1.056987866779777</v>
+        <v>1.027518437344912</v>
       </c>
       <c r="N16">
-        <v>1.037094256567817</v>
+        <v>1.003885727309813</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029699204147376</v>
+        <v>0.9755760727880228</v>
       </c>
       <c r="D17">
-        <v>1.050386840344804</v>
+        <v>1.02981284118911</v>
       </c>
       <c r="E17">
-        <v>1.040576623384316</v>
+        <v>0.9986881172314563</v>
       </c>
       <c r="F17">
-        <v>1.054004867418096</v>
+        <v>1.015544524594325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040086949425411</v>
+        <v>1.053049107867468</v>
       </c>
       <c r="J17">
-        <v>1.035923423040262</v>
+        <v>1.004006297976611</v>
       </c>
       <c r="K17">
-        <v>1.053703297212126</v>
+        <v>1.043317583876984</v>
       </c>
       <c r="L17">
-        <v>1.04392659128771</v>
+        <v>1.012719187670369</v>
       </c>
       <c r="M17">
-        <v>1.057309138315106</v>
+        <v>1.029285383042805</v>
       </c>
       <c r="N17">
-        <v>1.037394553123057</v>
+        <v>1.00543210208087</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029955257615959</v>
+        <v>0.9769346073266164</v>
       </c>
       <c r="D18">
-        <v>1.050562817766142</v>
+        <v>1.030837817569126</v>
       </c>
       <c r="E18">
-        <v>1.040798264522365</v>
+        <v>0.9998184651040638</v>
       </c>
       <c r="F18">
-        <v>1.054233869666412</v>
+        <v>1.016769707460498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040132964878107</v>
+        <v>1.053470056714342</v>
       </c>
       <c r="J18">
-        <v>1.036098257474533</v>
+        <v>1.004898237668794</v>
       </c>
       <c r="K18">
-        <v>1.053837433828508</v>
+        <v>1.044144665473357</v>
       </c>
       <c r="L18">
-        <v>1.044105781553534</v>
+        <v>1.013640332812635</v>
       </c>
       <c r="M18">
-        <v>1.057496289376025</v>
+        <v>1.030305118896635</v>
       </c>
       <c r="N18">
-        <v>1.037569635842278</v>
+        <v>1.006325308429723</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030042562772791</v>
+        <v>0.9773956724424533</v>
       </c>
       <c r="D19">
-        <v>1.050622773578647</v>
+        <v>1.031185489171597</v>
       </c>
       <c r="E19">
-        <v>1.040873833321268</v>
+        <v>1.000202184079353</v>
       </c>
       <c r="F19">
-        <v>1.054311924764839</v>
+        <v>1.017185452425116</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040148598175685</v>
+        <v>1.053612513707006</v>
       </c>
       <c r="J19">
-        <v>1.036157858779945</v>
+        <v>1.005200906658223</v>
       </c>
       <c r="K19">
-        <v>1.053883109818275</v>
+        <v>1.044425012105933</v>
       </c>
       <c r="L19">
-        <v>1.044166863388495</v>
+        <v>1.013952903779201</v>
       </c>
       <c r="M19">
-        <v>1.057560062141093</v>
+        <v>1.030651003455027</v>
       </c>
       <c r="N19">
-        <v>1.03762932178838</v>
+        <v>1.006628407243833</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029652103860938</v>
+        <v>0.975325145614287</v>
       </c>
       <c r="D20">
-        <v>1.050354447871462</v>
+        <v>1.029623434857252</v>
       </c>
       <c r="E20">
-        <v>1.040535851740373</v>
+        <v>0.9984793840480739</v>
       </c>
       <c r="F20">
-        <v>1.053962730529703</v>
+        <v>1.015318199173795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040078458280768</v>
+        <v>1.052971163911406</v>
       </c>
       <c r="J20">
-        <v>1.035891257520387</v>
+        <v>1.00384153365928</v>
       </c>
       <c r="K20">
-        <v>1.053678594779297</v>
+        <v>1.043164651834267</v>
       </c>
       <c r="L20">
-        <v>1.043893622317792</v>
+        <v>1.012549024457039</v>
       </c>
       <c r="M20">
-        <v>1.057274693867028</v>
+        <v>1.029096940173118</v>
       </c>
       <c r="N20">
-        <v>1.037362341924454</v>
+        <v>1.005267103779309</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028382508198257</v>
+        <v>0.9684379278929478</v>
       </c>
       <c r="D21">
-        <v>1.049478775899013</v>
+        <v>1.024415067922775</v>
       </c>
       <c r="E21">
-        <v>1.039436686245682</v>
+        <v>0.9927561447300185</v>
       </c>
       <c r="F21">
-        <v>1.052825473651971</v>
+        <v>1.009103344540312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03984649411634</v>
+        <v>1.050809656552496</v>
       </c>
       <c r="J21">
-        <v>1.035023627534169</v>
+        <v>0.9993171956038499</v>
       </c>
       <c r="K21">
-        <v>1.053009463176749</v>
+        <v>1.038948196593076</v>
       </c>
       <c r="L21">
-        <v>1.043004081167169</v>
+        <v>1.007876066145141</v>
       </c>
       <c r="M21">
-        <v>1.056344099238774</v>
+        <v>1.02391427959603</v>
       </c>
       <c r="N21">
-        <v>1.036493479804138</v>
+        <v>1.000736340644892</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027584121436824</v>
+        <v>0.9639807149321173</v>
       </c>
       <c r="D22">
-        <v>1.048925665149497</v>
+        <v>1.021035817527843</v>
       </c>
       <c r="E22">
-        <v>1.038745323895264</v>
+        <v>0.9890584950830638</v>
       </c>
       <c r="F22">
-        <v>1.052108907046987</v>
+        <v>1.005079144790685</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039697637007329</v>
+        <v>1.049389711777331</v>
       </c>
       <c r="J22">
-        <v>1.034477434230477</v>
+        <v>0.9963874751230481</v>
       </c>
       <c r="K22">
-        <v>1.052585511347489</v>
+        <v>1.036201760092736</v>
       </c>
       <c r="L22">
-        <v>1.042443863802981</v>
+        <v>1.004849866752838</v>
       </c>
       <c r="M22">
-        <v>1.055756824466645</v>
+        <v>1.020550649896131</v>
       </c>
       <c r="N22">
-        <v>1.035946510843305</v>
+        <v>0.9978024596249635</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028007375220358</v>
+        <v>0.9663561140480094</v>
       </c>
       <c r="D23">
-        <v>1.049219120287704</v>
+        <v>1.022837463704802</v>
       </c>
       <c r="E23">
-        <v>1.03911185417241</v>
+        <v>0.9910284673622425</v>
       </c>
       <c r="F23">
-        <v>1.052488917456001</v>
+        <v>1.007223922285967</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039776834337099</v>
+        <v>1.050148384377315</v>
       </c>
       <c r="J23">
-        <v>1.034767046257357</v>
+        <v>0.9979489586701237</v>
       </c>
       <c r="K23">
-        <v>1.052810563390537</v>
+        <v>1.037667026261581</v>
       </c>
       <c r="L23">
-        <v>1.042740933653757</v>
+        <v>1.006462784960116</v>
       </c>
       <c r="M23">
-        <v>1.056068355923492</v>
+        <v>1.022344089418119</v>
       </c>
       <c r="N23">
-        <v>1.036236534152482</v>
+        <v>0.9993661606577808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029673386498025</v>
+        <v>0.9754385688057359</v>
       </c>
       <c r="D24">
-        <v>1.050369085508599</v>
+        <v>1.029709052986637</v>
       </c>
       <c r="E24">
-        <v>1.040554274784085</v>
+        <v>0.9985737330432995</v>
       </c>
       <c r="F24">
-        <v>1.053981770899269</v>
+        <v>1.015420503048726</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040082296097558</v>
+        <v>1.053006403229495</v>
       </c>
       <c r="J24">
-        <v>1.03590579196596</v>
+        <v>1.003916010553636</v>
       </c>
       <c r="K24">
-        <v>1.053689757858448</v>
+        <v>1.043233785974241</v>
       </c>
       <c r="L24">
-        <v>1.043908519893303</v>
+        <v>1.012625941908921</v>
       </c>
       <c r="M24">
-        <v>1.057290258575415</v>
+        <v>1.029182122986056</v>
       </c>
       <c r="N24">
-        <v>1.037376897010607</v>
+        <v>1.005341686439398</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031606126488529</v>
+        <v>0.9854731627663106</v>
       </c>
       <c r="D25">
-        <v>1.051692470529431</v>
+        <v>1.037258923349212</v>
       </c>
       <c r="E25">
-        <v>1.042226942563691</v>
+        <v>1.006932312729062</v>
       </c>
       <c r="F25">
-        <v>1.055707494273608</v>
+        <v>1.024462697841137</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04042363650307</v>
+        <v>1.056072489349951</v>
       </c>
       <c r="J25">
-        <v>1.037224299545594</v>
+        <v>1.010499501921468</v>
       </c>
       <c r="K25">
-        <v>1.054695877849994</v>
+        <v>1.049305120840028</v>
       </c>
       <c r="L25">
-        <v>1.045259409838406</v>
+        <v>1.019423958266912</v>
       </c>
       <c r="M25">
-        <v>1.058698746744384</v>
+        <v>1.036692770209977</v>
       </c>
       <c r="N25">
-        <v>1.038697277022238</v>
+        <v>1.011934527120109</v>
       </c>
     </row>
   </sheetData>
